--- a/ssen/SDCT Annual and Monthly Environmental Report 3.8.22.xlsx
+++ b/ssen/SDCT Annual and Monthly Environmental Report 3.8.22.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://actionsustainability.sharepoint.com/sites/SustainabilityTool527/Shared Documents/Tool Clients/SSE/SSEN-T/3. Working documents/Landing page &amp; image assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B24722DA-5F3E-4836-A7FB-5EDE20CE64EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B24722DA-5F3E-4836-A7FB-5EDE20CE64EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90E24045-8F2B-4A8E-83A0-F1135A1167E8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{48AD7962-980D-440D-A153-F7E4A04B5258}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{48AD7962-980D-440D-A153-F7E4A04B5258}"/>
   </bookViews>
   <sheets>
     <sheet name="Annual Company Reporting" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Annual Company Reporting'!$C$9:$H$442</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Annual Company Reporting'!$C$9:$H$441</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2170" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="447">
   <si>
     <t>Sustainability Issue</t>
   </si>
@@ -1142,9 +1142,6 @@
   </si>
   <si>
     <t>Total grid consumption from temporary/project sites where the electricity is provided by the client</t>
-  </si>
-  <si>
-    <t>Total grid electricity purchased via a landlord for our own estate (permanent offices, depots, workshops, manufacturing sites etc.) as part of a service charge</t>
   </si>
   <si>
     <t>Market based tCO2e</t>
@@ -1976,9 +1973,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5525FED6-2470-4DB9-92F1-A54CC427779E}">
-  <dimension ref="A1:L442"/>
+  <dimension ref="A1:L441"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A357" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A365" sqref="A365:XFD365"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="55" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2008,7 +2007,7 @@
       <c r="A3" s="1"/>
       <c r="C3" s="5"/>
       <c r="D3" s="22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E3" s="22"/>
       <c r="F3" s="5"/>
@@ -2069,19 +2068,19 @@
         <v>0</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E9" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="F9" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="G9" s="14" t="s">
         <v>438</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="H9" s="14" t="s">
         <v>439</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>440</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
@@ -2102,7 +2101,7 @@
         <v>4</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J10" s="19"/>
     </row>
@@ -2121,7 +2120,7 @@
         <v>4</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J11" s="19"/>
     </row>
@@ -2140,7 +2139,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J12" s="19"/>
     </row>
@@ -2159,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J13" s="19"/>
     </row>
@@ -2178,7 +2177,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J14" s="21"/>
     </row>
@@ -2197,7 +2196,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2215,7 +2214,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:12" s="19" customFormat="1" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2235,7 +2234,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J17" s="20"/>
       <c r="K17" s="20"/>
@@ -2258,7 +2257,7 @@
         <v>4</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J18" s="20"/>
       <c r="K18" s="20"/>
@@ -2281,7 +2280,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="20"/>
@@ -2304,7 +2303,7 @@
         <v>4</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="20"/>
@@ -2327,7 +2326,7 @@
         <v>4</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J21" s="20"/>
       <c r="K21" s="20"/>
@@ -2350,7 +2349,7 @@
         <v>4</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
@@ -2373,7 +2372,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J23" s="20"/>
       <c r="K23" s="20"/>
@@ -2396,7 +2395,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J24" s="20"/>
       <c r="K24" s="20"/>
@@ -2419,7 +2418,7 @@
         <v>4</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J25" s="20"/>
       <c r="K25" s="20"/>
@@ -2440,7 +2439,7 @@
         <v>4</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2458,7 +2457,7 @@
         <v>4</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2476,7 +2475,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2494,7 +2493,7 @@
         <v>4</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2512,7 +2511,7 @@
         <v>4</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2530,7 +2529,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2548,7 +2547,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="33" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2566,7 +2565,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="34" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2584,7 +2583,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="35" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2602,7 +2601,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="36" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2620,7 +2619,7 @@
         <v>4</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="37" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2638,7 +2637,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2656,7 +2655,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2674,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="40" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2692,7 +2691,7 @@
         <v>4</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="41" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2710,7 +2709,7 @@
         <v>4</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2728,7 +2727,7 @@
         <v>4</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="43" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2746,7 +2745,7 @@
         <v>4</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2764,7 +2763,7 @@
         <v>4</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2782,7 +2781,7 @@
         <v>4</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2800,7 +2799,7 @@
         <v>4</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="47" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2818,7 +2817,7 @@
         <v>4</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="48" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2836,7 +2835,7 @@
         <v>4</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="49" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2854,7 +2853,7 @@
         <v>4</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2872,7 +2871,7 @@
         <v>4</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2890,7 +2889,7 @@
         <v>4</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2908,7 +2907,7 @@
         <v>4</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2926,7 +2925,7 @@
         <v>4</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="54" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2944,7 +2943,7 @@
         <v>4</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2962,7 +2961,7 @@
         <v>4</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="56" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2980,7 +2979,7 @@
         <v>4</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -2998,7 +2997,7 @@
         <v>4</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3016,7 +3015,7 @@
         <v>4</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3034,7 +3033,7 @@
         <v>4</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="60" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3052,7 +3051,7 @@
         <v>4</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3070,7 +3069,7 @@
         <v>4</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="62" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3088,7 +3087,7 @@
         <v>4</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="63" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3106,7 +3105,7 @@
         <v>4</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3124,7 +3123,7 @@
         <v>4</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3142,7 +3141,7 @@
         <v>4</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="66" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3160,7 +3159,7 @@
         <v>4</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3178,7 +3177,7 @@
         <v>4</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="68" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3196,7 +3195,7 @@
         <v>4</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="69" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3214,7 +3213,7 @@
         <v>4</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="70" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3232,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="71" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3250,7 +3249,7 @@
         <v>4</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="72" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3268,7 +3267,7 @@
         <v>4</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="73" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3286,7 +3285,7 @@
         <v>4</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3304,7 +3303,7 @@
         <v>4</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="75" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3322,7 +3321,7 @@
         <v>4</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="76" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3340,7 +3339,7 @@
         <v>4</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="77" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3358,7 +3357,7 @@
         <v>4</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="78" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3376,7 +3375,7 @@
         <v>4</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="79" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3394,7 +3393,7 @@
         <v>4</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="80" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3412,7 +3411,7 @@
         <v>4</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="81" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3430,7 +3429,7 @@
         <v>4</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="82" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3448,7 +3447,7 @@
         <v>4</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="83" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3466,7 +3465,7 @@
         <v>4</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="84" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3484,7 +3483,7 @@
         <v>4</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="85" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3502,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="86" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3520,7 +3519,7 @@
         <v>4</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3538,7 +3537,7 @@
         <v>4</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3556,7 +3555,7 @@
         <v>4</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3574,7 +3573,7 @@
         <v>4</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="90" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3592,7 +3591,7 @@
         <v>4</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="91" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3610,7 +3609,7 @@
         <v>4</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="92" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3628,7 +3627,7 @@
         <v>4</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="93" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3646,7 +3645,7 @@
         <v>4</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="94" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3664,7 +3663,7 @@
         <v>4</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="95" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3682,7 +3681,7 @@
         <v>4</v>
       </c>
       <c r="H95" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="96" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3700,7 +3699,7 @@
         <v>4</v>
       </c>
       <c r="H96" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="97" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3718,7 +3717,7 @@
         <v>4</v>
       </c>
       <c r="H97" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="98" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3736,7 +3735,7 @@
         <v>4</v>
       </c>
       <c r="H98" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="99" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3754,7 +3753,7 @@
         <v>4</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="100" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3772,7 +3771,7 @@
         <v>4</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="101" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3790,7 +3789,7 @@
         <v>4</v>
       </c>
       <c r="H101" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3808,7 +3807,7 @@
         <v>4</v>
       </c>
       <c r="H102" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="103" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3826,7 +3825,7 @@
         <v>4</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="104" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3844,7 +3843,7 @@
         <v>4</v>
       </c>
       <c r="H104" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="105" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3862,7 +3861,7 @@
         <v>4</v>
       </c>
       <c r="H105" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="106" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3880,7 +3879,7 @@
         <v>4</v>
       </c>
       <c r="H106" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="107" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3898,7 +3897,7 @@
         <v>4</v>
       </c>
       <c r="H107" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="108" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3916,7 +3915,7 @@
         <v>4</v>
       </c>
       <c r="H108" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="109" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3934,7 +3933,7 @@
         <v>4</v>
       </c>
       <c r="H109" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="110" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3952,7 +3951,7 @@
         <v>4</v>
       </c>
       <c r="H110" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="111" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3970,7 +3969,7 @@
         <v>4</v>
       </c>
       <c r="H111" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="112" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -3988,7 +3987,7 @@
         <v>4</v>
       </c>
       <c r="H112" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="113" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4006,7 +4005,7 @@
         <v>4</v>
       </c>
       <c r="H113" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="114" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4024,7 +4023,7 @@
         <v>4</v>
       </c>
       <c r="H114" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="115" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4042,7 +4041,7 @@
         <v>4</v>
       </c>
       <c r="H115" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4060,7 +4059,7 @@
         <v>4</v>
       </c>
       <c r="H116" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="117" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4078,7 +4077,7 @@
         <v>4</v>
       </c>
       <c r="H117" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="118" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4096,7 +4095,7 @@
         <v>4</v>
       </c>
       <c r="H118" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="119" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4114,7 +4113,7 @@
         <v>4</v>
       </c>
       <c r="H119" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="120" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4132,7 +4131,7 @@
         <v>4</v>
       </c>
       <c r="H120" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="121" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4150,7 +4149,7 @@
         <v>4</v>
       </c>
       <c r="H121" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="122" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4168,7 +4167,7 @@
         <v>4</v>
       </c>
       <c r="H122" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="123" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4186,7 +4185,7 @@
         <v>4</v>
       </c>
       <c r="H123" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="124" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4204,7 +4203,7 @@
         <v>4</v>
       </c>
       <c r="H124" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="125" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4222,7 +4221,7 @@
         <v>4</v>
       </c>
       <c r="H125" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="126" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4240,7 +4239,7 @@
         <v>4</v>
       </c>
       <c r="H126" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="127" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4258,7 +4257,7 @@
         <v>4</v>
       </c>
       <c r="H127" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="128" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4276,7 +4275,7 @@
         <v>4</v>
       </c>
       <c r="H128" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="129" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4294,7 +4293,7 @@
         <v>4</v>
       </c>
       <c r="H129" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="130" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4312,7 +4311,7 @@
         <v>4</v>
       </c>
       <c r="H130" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="131" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4330,7 +4329,7 @@
         <v>4</v>
       </c>
       <c r="H131" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="132" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4348,7 +4347,7 @@
         <v>4</v>
       </c>
       <c r="H132" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="133" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4366,7 +4365,7 @@
         <v>4</v>
       </c>
       <c r="H133" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="134" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4384,7 +4383,7 @@
         <v>4</v>
       </c>
       <c r="H134" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="135" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4402,7 +4401,7 @@
         <v>4</v>
       </c>
       <c r="H135" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="136" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4420,7 +4419,7 @@
         <v>4</v>
       </c>
       <c r="H136" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="137" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4438,7 +4437,7 @@
         <v>4</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="138" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4456,7 +4455,7 @@
         <v>4</v>
       </c>
       <c r="H138" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="139" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4474,7 +4473,7 @@
         <v>4</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4492,7 +4491,7 @@
         <v>4</v>
       </c>
       <c r="H140" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="141" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4510,7 +4509,7 @@
         <v>4</v>
       </c>
       <c r="H141" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="142" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4528,7 +4527,7 @@
         <v>4</v>
       </c>
       <c r="H142" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="143" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4546,7 +4545,7 @@
         <v>4</v>
       </c>
       <c r="H143" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="144" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4564,7 +4563,7 @@
         <v>4</v>
       </c>
       <c r="H144" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="145" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4582,7 +4581,7 @@
         <v>4</v>
       </c>
       <c r="H145" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="146" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4600,7 +4599,7 @@
         <v>4</v>
       </c>
       <c r="H146" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="147" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4618,7 +4617,7 @@
         <v>4</v>
       </c>
       <c r="H147" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="148" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4636,7 +4635,7 @@
         <v>4</v>
       </c>
       <c r="H148" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="149" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4654,7 +4653,7 @@
         <v>4</v>
       </c>
       <c r="H149" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="150" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4672,7 +4671,7 @@
         <v>4</v>
       </c>
       <c r="H150" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="151" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4690,7 +4689,7 @@
         <v>4</v>
       </c>
       <c r="H151" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="152" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4708,7 +4707,7 @@
         <v>4</v>
       </c>
       <c r="H152" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="153" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4726,7 +4725,7 @@
         <v>4</v>
       </c>
       <c r="H153" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="154" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4744,7 +4743,7 @@
         <v>4</v>
       </c>
       <c r="H154" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="155" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4762,7 +4761,7 @@
         <v>4</v>
       </c>
       <c r="H155" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="156" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4780,7 +4779,7 @@
         <v>4</v>
       </c>
       <c r="H156" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="157" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4798,7 +4797,7 @@
         <v>4</v>
       </c>
       <c r="H157" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="158" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4816,7 +4815,7 @@
         <v>4</v>
       </c>
       <c r="H158" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="159" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4834,7 +4833,7 @@
         <v>4</v>
       </c>
       <c r="H159" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4852,7 +4851,7 @@
         <v>4</v>
       </c>
       <c r="H160" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="161" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4870,7 +4869,7 @@
         <v>4</v>
       </c>
       <c r="H161" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="162" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4888,7 +4887,7 @@
         <v>4</v>
       </c>
       <c r="H162" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4906,7 +4905,7 @@
         <v>4</v>
       </c>
       <c r="H163" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="164" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4924,7 +4923,7 @@
         <v>4</v>
       </c>
       <c r="H164" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="165" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4942,7 +4941,7 @@
         <v>4</v>
       </c>
       <c r="H165" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="166" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4960,7 +4959,7 @@
         <v>4</v>
       </c>
       <c r="H166" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="167" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4978,7 +4977,7 @@
         <v>4</v>
       </c>
       <c r="H167" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="168" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -4996,7 +4995,7 @@
         <v>4</v>
       </c>
       <c r="H168" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="169" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5014,7 +5013,7 @@
         <v>4</v>
       </c>
       <c r="H169" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="170" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5032,7 +5031,7 @@
         <v>4</v>
       </c>
       <c r="H170" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="171" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5050,7 +5049,7 @@
         <v>4</v>
       </c>
       <c r="H171" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="172" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5068,7 +5067,7 @@
         <v>4</v>
       </c>
       <c r="H172" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="173" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5086,7 +5085,7 @@
         <v>4</v>
       </c>
       <c r="H173" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="174" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5104,7 +5103,7 @@
         <v>4</v>
       </c>
       <c r="H174" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="175" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5122,7 +5121,7 @@
         <v>4</v>
       </c>
       <c r="H175" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="176" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5140,7 +5139,7 @@
         <v>4</v>
       </c>
       <c r="H176" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="177" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5158,7 +5157,7 @@
         <v>4</v>
       </c>
       <c r="H177" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="178" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5176,7 +5175,7 @@
         <v>4</v>
       </c>
       <c r="H178" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="179" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5194,7 +5193,7 @@
         <v>4</v>
       </c>
       <c r="H179" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="180" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5212,7 +5211,7 @@
         <v>4</v>
       </c>
       <c r="H180" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="181" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5230,7 +5229,7 @@
         <v>4</v>
       </c>
       <c r="H181" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="182" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5248,7 +5247,7 @@
         <v>4</v>
       </c>
       <c r="H182" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="183" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5266,7 +5265,7 @@
         <v>4</v>
       </c>
       <c r="H183" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="184" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5284,7 +5283,7 @@
         <v>4</v>
       </c>
       <c r="H184" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="185" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5302,7 +5301,7 @@
         <v>4</v>
       </c>
       <c r="H185" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="186" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5320,7 +5319,7 @@
         <v>4</v>
       </c>
       <c r="H186" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="187" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5338,7 +5337,7 @@
         <v>4</v>
       </c>
       <c r="H187" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="188" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5356,7 +5355,7 @@
         <v>4</v>
       </c>
       <c r="H188" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="189" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5374,7 +5373,7 @@
         <v>4</v>
       </c>
       <c r="H189" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="190" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5392,7 +5391,7 @@
         <v>4</v>
       </c>
       <c r="H190" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="191" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5410,7 +5409,7 @@
         <v>4</v>
       </c>
       <c r="H191" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="192" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5428,7 +5427,7 @@
         <v>4</v>
       </c>
       <c r="H192" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="193" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5446,7 +5445,7 @@
         <v>4</v>
       </c>
       <c r="H193" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="194" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5464,7 +5463,7 @@
         <v>4</v>
       </c>
       <c r="H194" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="195" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5482,7 +5481,7 @@
         <v>4</v>
       </c>
       <c r="H195" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="196" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5500,7 +5499,7 @@
         <v>4</v>
       </c>
       <c r="H196" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="197" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5518,7 +5517,7 @@
         <v>4</v>
       </c>
       <c r="H197" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="198" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5536,7 +5535,7 @@
         <v>4</v>
       </c>
       <c r="H198" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="199" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5554,7 +5553,7 @@
         <v>4</v>
       </c>
       <c r="H199" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="200" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5572,7 +5571,7 @@
         <v>4</v>
       </c>
       <c r="H200" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="201" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5590,7 +5589,7 @@
         <v>4</v>
       </c>
       <c r="H201" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="202" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5608,7 +5607,7 @@
         <v>4</v>
       </c>
       <c r="H202" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="203" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5626,7 +5625,7 @@
         <v>4</v>
       </c>
       <c r="H203" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="204" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5644,7 +5643,7 @@
         <v>4</v>
       </c>
       <c r="H204" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="205" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5662,7 +5661,7 @@
         <v>4</v>
       </c>
       <c r="H205" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="206" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5680,7 +5679,7 @@
         <v>4</v>
       </c>
       <c r="H206" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="207" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5698,7 +5697,7 @@
         <v>4</v>
       </c>
       <c r="H207" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="208" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5716,7 +5715,7 @@
         <v>4</v>
       </c>
       <c r="H208" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="209" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5734,7 +5733,7 @@
         <v>4</v>
       </c>
       <c r="H209" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="210" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5752,7 +5751,7 @@
         <v>4</v>
       </c>
       <c r="H210" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="211" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5770,7 +5769,7 @@
         <v>4</v>
       </c>
       <c r="H211" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="212" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5788,7 +5787,7 @@
         <v>4</v>
       </c>
       <c r="H212" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="213" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5806,7 +5805,7 @@
         <v>4</v>
       </c>
       <c r="H213" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="214" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5824,7 +5823,7 @@
         <v>4</v>
       </c>
       <c r="H214" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="215" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5842,7 +5841,7 @@
         <v>4</v>
       </c>
       <c r="H215" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="216" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5860,7 +5859,7 @@
         <v>4</v>
       </c>
       <c r="H216" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="217" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5878,7 +5877,7 @@
         <v>4</v>
       </c>
       <c r="H217" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="218" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5896,7 +5895,7 @@
         <v>4</v>
       </c>
       <c r="H218" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="219" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5914,7 +5913,7 @@
         <v>4</v>
       </c>
       <c r="H219" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="220" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5932,7 +5931,7 @@
         <v>4</v>
       </c>
       <c r="H220" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="221" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5950,7 +5949,7 @@
         <v>4</v>
       </c>
       <c r="H221" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="222" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5968,7 +5967,7 @@
         <v>4</v>
       </c>
       <c r="H222" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="223" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -5986,7 +5985,7 @@
         <v>4</v>
       </c>
       <c r="H223" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="224" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6004,7 +6003,7 @@
         <v>4</v>
       </c>
       <c r="H224" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="225" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6022,7 +6021,7 @@
         <v>4</v>
       </c>
       <c r="H225" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="226" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6040,7 +6039,7 @@
         <v>4</v>
       </c>
       <c r="H226" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="227" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6058,7 +6057,7 @@
         <v>4</v>
       </c>
       <c r="H227" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="228" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6076,7 +6075,7 @@
         <v>4</v>
       </c>
       <c r="H228" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="229" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6094,7 +6093,7 @@
         <v>4</v>
       </c>
       <c r="H229" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="230" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6112,7 +6111,7 @@
         <v>4</v>
       </c>
       <c r="H230" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="231" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6130,7 +6129,7 @@
         <v>4</v>
       </c>
       <c r="H231" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="232" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6148,7 +6147,7 @@
         <v>4</v>
       </c>
       <c r="H232" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="233" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6166,7 +6165,7 @@
         <v>4</v>
       </c>
       <c r="H233" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="234" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6184,7 +6183,7 @@
         <v>4</v>
       </c>
       <c r="H234" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="235" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6202,7 +6201,7 @@
         <v>4</v>
       </c>
       <c r="H235" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="236" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6220,7 +6219,7 @@
         <v>4</v>
       </c>
       <c r="H236" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="237" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6238,7 +6237,7 @@
         <v>4</v>
       </c>
       <c r="H237" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="238" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6256,7 +6255,7 @@
         <v>4</v>
       </c>
       <c r="H238" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="239" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6274,7 +6273,7 @@
         <v>4</v>
       </c>
       <c r="H239" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="240" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6292,7 +6291,7 @@
         <v>4</v>
       </c>
       <c r="H240" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="241" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6310,7 +6309,7 @@
         <v>4</v>
       </c>
       <c r="H241" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="242" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6328,7 +6327,7 @@
         <v>4</v>
       </c>
       <c r="H242" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="243" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6346,7 +6345,7 @@
         <v>4</v>
       </c>
       <c r="H243" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="244" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6364,7 +6363,7 @@
         <v>4</v>
       </c>
       <c r="H244" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="245" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6382,7 +6381,7 @@
         <v>4</v>
       </c>
       <c r="H245" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="246" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6400,7 +6399,7 @@
         <v>4</v>
       </c>
       <c r="H246" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="247" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6418,7 +6417,7 @@
         <v>4</v>
       </c>
       <c r="H247" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="248" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6436,7 +6435,7 @@
         <v>4</v>
       </c>
       <c r="H248" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="249" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6454,7 +6453,7 @@
         <v>4</v>
       </c>
       <c r="H249" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="250" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6472,7 +6471,7 @@
         <v>4</v>
       </c>
       <c r="H250" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="251" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6490,7 +6489,7 @@
         <v>4</v>
       </c>
       <c r="H251" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="252" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6508,7 +6507,7 @@
         <v>4</v>
       </c>
       <c r="H252" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="253" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6526,7 +6525,7 @@
         <v>4</v>
       </c>
       <c r="H253" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="254" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6544,7 +6543,7 @@
         <v>4</v>
       </c>
       <c r="H254" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="255" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6562,7 +6561,7 @@
         <v>4</v>
       </c>
       <c r="H255" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="256" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6580,7 +6579,7 @@
         <v>4</v>
       </c>
       <c r="H256" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="257" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6598,7 +6597,7 @@
         <v>4</v>
       </c>
       <c r="H257" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="258" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6616,7 +6615,7 @@
         <v>4</v>
       </c>
       <c r="H258" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="259" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6634,7 +6633,7 @@
         <v>4</v>
       </c>
       <c r="H259" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="260" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6652,7 +6651,7 @@
         <v>4</v>
       </c>
       <c r="H260" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="261" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6670,7 +6669,7 @@
         <v>4</v>
       </c>
       <c r="H261" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="262" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6688,7 +6687,7 @@
         <v>4</v>
       </c>
       <c r="H262" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="263" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6706,7 +6705,7 @@
         <v>4</v>
       </c>
       <c r="H263" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="264" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6724,7 +6723,7 @@
         <v>4</v>
       </c>
       <c r="H264" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="265" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6742,7 +6741,7 @@
         <v>4</v>
       </c>
       <c r="H265" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="266" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6760,7 +6759,7 @@
         <v>4</v>
       </c>
       <c r="H266" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="267" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6778,7 +6777,7 @@
         <v>4</v>
       </c>
       <c r="H267" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="268" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6796,7 +6795,7 @@
         <v>4</v>
       </c>
       <c r="H268" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="269" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6814,7 +6813,7 @@
         <v>4</v>
       </c>
       <c r="H269" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="270" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6832,7 +6831,7 @@
         <v>4</v>
       </c>
       <c r="H270" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="271" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6850,7 +6849,7 @@
         <v>4</v>
       </c>
       <c r="H271" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="272" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6868,7 +6867,7 @@
         <v>4</v>
       </c>
       <c r="H272" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="273" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6886,7 +6885,7 @@
         <v>4</v>
       </c>
       <c r="H273" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="274" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6904,7 +6903,7 @@
         <v>4</v>
       </c>
       <c r="H274" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="275" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6922,7 +6921,7 @@
         <v>4</v>
       </c>
       <c r="H275" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="276" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6940,7 +6939,7 @@
         <v>4</v>
       </c>
       <c r="H276" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="277" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6958,7 +6957,7 @@
         <v>4</v>
       </c>
       <c r="H277" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="278" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6976,7 +6975,7 @@
         <v>4</v>
       </c>
       <c r="H278" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="279" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -6994,7 +6993,7 @@
         <v>4</v>
       </c>
       <c r="H279" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="280" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7012,7 +7011,7 @@
         <v>4</v>
       </c>
       <c r="H280" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="281" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7030,7 +7029,7 @@
         <v>4</v>
       </c>
       <c r="H281" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="282" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7048,7 +7047,7 @@
         <v>4</v>
       </c>
       <c r="H282" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="283" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7066,7 +7065,7 @@
         <v>4</v>
       </c>
       <c r="H283" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="284" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7084,7 +7083,7 @@
         <v>4</v>
       </c>
       <c r="H284" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="285" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7102,7 +7101,7 @@
         <v>4</v>
       </c>
       <c r="H285" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="286" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7120,7 +7119,7 @@
         <v>4</v>
       </c>
       <c r="H286" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="287" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7138,7 +7137,7 @@
         <v>4</v>
       </c>
       <c r="H287" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="288" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7156,7 +7155,7 @@
         <v>4</v>
       </c>
       <c r="H288" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="289" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7174,7 +7173,7 @@
         <v>4</v>
       </c>
       <c r="H289" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="290" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7192,7 +7191,7 @@
         <v>4</v>
       </c>
       <c r="H290" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="291" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7210,7 +7209,7 @@
         <v>4</v>
       </c>
       <c r="H291" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="292" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7228,7 +7227,7 @@
         <v>4</v>
       </c>
       <c r="H292" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="293" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7246,7 +7245,7 @@
         <v>4</v>
       </c>
       <c r="H293" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="294" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7264,7 +7263,7 @@
         <v>4</v>
       </c>
       <c r="H294" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="295" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7282,7 +7281,7 @@
         <v>4</v>
       </c>
       <c r="H295" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="296" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7300,7 +7299,7 @@
         <v>4</v>
       </c>
       <c r="H296" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="297" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7318,7 +7317,7 @@
         <v>4</v>
       </c>
       <c r="H297" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="298" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7336,7 +7335,7 @@
         <v>4</v>
       </c>
       <c r="H298" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="299" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7354,7 +7353,7 @@
         <v>4</v>
       </c>
       <c r="H299" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="300" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7372,7 +7371,7 @@
         <v>4</v>
       </c>
       <c r="H300" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="301" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7390,7 +7389,7 @@
         <v>4</v>
       </c>
       <c r="H301" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="302" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7408,7 +7407,7 @@
         <v>4</v>
       </c>
       <c r="H302" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="303" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7426,7 +7425,7 @@
         <v>4</v>
       </c>
       <c r="H303" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="304" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7444,7 +7443,7 @@
         <v>4</v>
       </c>
       <c r="H304" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="305" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7462,7 +7461,7 @@
         <v>4</v>
       </c>
       <c r="H305" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="306" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7480,7 +7479,7 @@
         <v>4</v>
       </c>
       <c r="H306" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="307" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7498,7 +7497,7 @@
         <v>4</v>
       </c>
       <c r="H307" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="308" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7516,7 +7515,7 @@
         <v>4</v>
       </c>
       <c r="H308" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="309" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7534,7 +7533,7 @@
         <v>4</v>
       </c>
       <c r="H309" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="310" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7552,7 +7551,7 @@
         <v>4</v>
       </c>
       <c r="H310" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="311" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7570,7 +7569,7 @@
         <v>4</v>
       </c>
       <c r="H311" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="312" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7588,7 +7587,7 @@
         <v>4</v>
       </c>
       <c r="H312" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="313" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7606,7 +7605,7 @@
         <v>4</v>
       </c>
       <c r="H313" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="314" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7624,7 +7623,7 @@
         <v>4</v>
       </c>
       <c r="H314" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="315" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7642,7 +7641,7 @@
         <v>4</v>
       </c>
       <c r="H315" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="316" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7660,7 +7659,7 @@
         <v>4</v>
       </c>
       <c r="H316" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="317" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7678,7 +7677,7 @@
         <v>4</v>
       </c>
       <c r="H317" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="318" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7696,7 +7695,7 @@
         <v>4</v>
       </c>
       <c r="H318" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="319" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7714,7 +7713,7 @@
         <v>4</v>
       </c>
       <c r="H319" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="320" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7732,7 +7731,7 @@
         <v>4</v>
       </c>
       <c r="H320" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="321" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7750,7 +7749,7 @@
         <v>4</v>
       </c>
       <c r="H321" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="322" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7768,7 +7767,7 @@
         <v>4</v>
       </c>
       <c r="H322" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="323" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7786,7 +7785,7 @@
         <v>4</v>
       </c>
       <c r="H323" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="324" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7804,7 +7803,7 @@
         <v>4</v>
       </c>
       <c r="H324" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="325" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7822,7 +7821,7 @@
         <v>4</v>
       </c>
       <c r="H325" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="326" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7840,7 +7839,7 @@
         <v>4</v>
       </c>
       <c r="H326" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="327" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7858,7 +7857,7 @@
         <v>4</v>
       </c>
       <c r="H327" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="328" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7876,7 +7875,7 @@
         <v>4</v>
       </c>
       <c r="H328" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="329" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7894,7 +7893,7 @@
         <v>4</v>
       </c>
       <c r="H329" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="330" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7912,7 +7911,7 @@
         <v>4</v>
       </c>
       <c r="H330" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="331" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7930,7 +7929,7 @@
         <v>4</v>
       </c>
       <c r="H331" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="332" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7948,7 +7947,7 @@
         <v>4</v>
       </c>
       <c r="H332" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="333" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7966,7 +7965,7 @@
         <v>4</v>
       </c>
       <c r="H333" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="334" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -7984,7 +7983,7 @@
         <v>329</v>
       </c>
       <c r="H334" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="335" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -8002,7 +8001,7 @@
         <v>329</v>
       </c>
       <c r="H335" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="336" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -8020,7 +8019,7 @@
         <v>329</v>
       </c>
       <c r="H336" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="337" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -8038,7 +8037,7 @@
         <v>329</v>
       </c>
       <c r="H337" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="338" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -8056,7 +8055,7 @@
         <v>329</v>
       </c>
       <c r="H338" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="339" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -8074,7 +8073,7 @@
         <v>329</v>
       </c>
       <c r="H339" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="340" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -8092,7 +8091,7 @@
         <v>329</v>
       </c>
       <c r="H340" s="18" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="341" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -8110,7 +8109,7 @@
         <v>337</v>
       </c>
       <c r="H341" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="342" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -8128,7 +8127,7 @@
         <v>337</v>
       </c>
       <c r="H342" s="15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="343" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
@@ -8156,7 +8155,7 @@
       </c>
       <c r="E344" s="15"/>
       <c r="F344" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G344" s="15" t="s">
         <v>343</v>
@@ -8530,12 +8529,12 @@
       <c r="D365" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="E365" s="15"/>
-      <c r="F365" s="15" t="s">
+      <c r="E365" s="15" t="s">
         <v>368</v>
       </c>
+      <c r="F365" s="15"/>
       <c r="G365" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H365" s="15" t="s">
         <v>342</v>
@@ -8567,11 +8566,11 @@
         <v>340</v>
       </c>
       <c r="E367" s="15" t="s">
-        <v>370</v>
+        <v>445</v>
       </c>
       <c r="F367" s="15"/>
       <c r="G367" s="15" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H367" s="15" t="s">
         <v>342</v>
@@ -8579,17 +8578,17 @@
     </row>
     <row r="368" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C368" s="15" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="D368" s="15" t="s">
         <v>340</v>
       </c>
       <c r="E368" s="15" t="s">
-        <v>446</v>
+        <v>371</v>
       </c>
       <c r="F368" s="15"/>
       <c r="G368" s="15" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="H368" s="15" t="s">
         <v>342</v>
@@ -8597,17 +8596,17 @@
     </row>
     <row r="369" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C369" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D369" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="E369" s="15" t="s">
+      <c r="E369" s="15"/>
+      <c r="F369" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="F369" s="15"/>
       <c r="G369" s="15" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H369" s="15" t="s">
         <v>342</v>
@@ -8615,7 +8614,7 @@
     </row>
     <row r="370" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C370" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D370" s="15" t="s">
         <v>340</v>
@@ -8633,7 +8632,7 @@
     </row>
     <row r="371" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C371" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D371" s="15" t="s">
         <v>340</v>
@@ -8643,7 +8642,7 @@
         <v>374</v>
       </c>
       <c r="G371" s="15" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="H371" s="15" t="s">
         <v>342</v>
@@ -8651,17 +8650,17 @@
     </row>
     <row r="372" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C372" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D372" s="15" t="s">
         <v>340</v>
       </c>
       <c r="E372" s="15"/>
       <c r="F372" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="G372" s="15" t="s">
         <v>375</v>
-      </c>
-      <c r="G372" s="15" t="s">
-        <v>376</v>
       </c>
       <c r="H372" s="15" t="s">
         <v>342</v>
@@ -8669,7 +8668,7 @@
     </row>
     <row r="373" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C373" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D373" s="15" t="s">
         <v>340</v>
@@ -8679,7 +8678,7 @@
         <v>377</v>
       </c>
       <c r="G373" s="15" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H373" s="15" t="s">
         <v>342</v>
@@ -8687,17 +8686,17 @@
     </row>
     <row r="374" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C374" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D374" s="15" t="s">
         <v>340</v>
       </c>
       <c r="E374" s="15"/>
       <c r="F374" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="G374" s="15" t="s">
         <v>378</v>
-      </c>
-      <c r="G374" s="15" t="s">
-        <v>379</v>
       </c>
       <c r="H374" s="15" t="s">
         <v>342</v>
@@ -8705,7 +8704,7 @@
     </row>
     <row r="375" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C375" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D375" s="15" t="s">
         <v>340</v>
@@ -8715,7 +8714,7 @@
         <v>380</v>
       </c>
       <c r="G375" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H375" s="15" t="s">
         <v>342</v>
@@ -8723,7 +8722,7 @@
     </row>
     <row r="376" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C376" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D376" s="15" t="s">
         <v>340</v>
@@ -8733,7 +8732,7 @@
         <v>381</v>
       </c>
       <c r="G376" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H376" s="15" t="s">
         <v>342</v>
@@ -8741,7 +8740,7 @@
     </row>
     <row r="377" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C377" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D377" s="15" t="s">
         <v>340</v>
@@ -8751,7 +8750,7 @@
         <v>382</v>
       </c>
       <c r="G377" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H377" s="15" t="s">
         <v>342</v>
@@ -8759,7 +8758,7 @@
     </row>
     <row r="378" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C378" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D378" s="15" t="s">
         <v>340</v>
@@ -8769,7 +8768,7 @@
         <v>383</v>
       </c>
       <c r="G378" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H378" s="15" t="s">
         <v>342</v>
@@ -8777,7 +8776,7 @@
     </row>
     <row r="379" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C379" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D379" s="15" t="s">
         <v>340</v>
@@ -8787,7 +8786,7 @@
         <v>384</v>
       </c>
       <c r="G379" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H379" s="15" t="s">
         <v>342</v>
@@ -8795,7 +8794,7 @@
     </row>
     <row r="380" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C380" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D380" s="15" t="s">
         <v>340</v>
@@ -8805,7 +8804,7 @@
         <v>385</v>
       </c>
       <c r="G380" s="15" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="H380" s="15" t="s">
         <v>342</v>
@@ -8813,7 +8812,7 @@
     </row>
     <row r="381" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C381" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D381" s="15" t="s">
         <v>340</v>
@@ -8823,7 +8822,7 @@
         <v>386</v>
       </c>
       <c r="G381" s="15" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="H381" s="15" t="s">
         <v>342</v>
@@ -8831,7 +8830,7 @@
     </row>
     <row r="382" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C382" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D382" s="15" t="s">
         <v>340</v>
@@ -8841,7 +8840,7 @@
         <v>387</v>
       </c>
       <c r="G382" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H382" s="15" t="s">
         <v>342</v>
@@ -8849,17 +8848,17 @@
     </row>
     <row r="383" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C383" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D383" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="E383" s="15"/>
-      <c r="F383" s="15" t="s">
+      <c r="E383" s="15" t="s">
         <v>388</v>
       </c>
+      <c r="F383" s="15"/>
       <c r="G383" s="15" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="H383" s="15" t="s">
         <v>342</v>
@@ -8867,17 +8866,17 @@
     </row>
     <row r="384" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C384" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D384" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="E384" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="F384" s="15"/>
+      <c r="E384" s="15"/>
+      <c r="F384" s="15" t="s">
+        <v>372</v>
+      </c>
       <c r="G384" s="15" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="H384" s="15" t="s">
         <v>342</v>
@@ -8885,7 +8884,7 @@
     </row>
     <row r="385" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C385" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D385" s="15" t="s">
         <v>340</v>
@@ -8903,7 +8902,7 @@
     </row>
     <row r="386" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C386" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D386" s="15" t="s">
         <v>340</v>
@@ -8913,7 +8912,7 @@
         <v>374</v>
       </c>
       <c r="G386" s="15" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="H386" s="15" t="s">
         <v>342</v>
@@ -8921,17 +8920,17 @@
     </row>
     <row r="387" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C387" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D387" s="15" t="s">
         <v>340</v>
       </c>
       <c r="E387" s="15"/>
       <c r="F387" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="G387" s="15" t="s">
         <v>375</v>
-      </c>
-      <c r="G387" s="15" t="s">
-        <v>376</v>
       </c>
       <c r="H387" s="15" t="s">
         <v>342</v>
@@ -8939,7 +8938,7 @@
     </row>
     <row r="388" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C388" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D388" s="15" t="s">
         <v>340</v>
@@ -8949,7 +8948,7 @@
         <v>377</v>
       </c>
       <c r="G388" s="15" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H388" s="15" t="s">
         <v>342</v>
@@ -8957,17 +8956,17 @@
     </row>
     <row r="389" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C389" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D389" s="15" t="s">
         <v>340</v>
       </c>
       <c r="E389" s="15"/>
       <c r="F389" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="G389" s="15" t="s">
         <v>378</v>
-      </c>
-      <c r="G389" s="15" t="s">
-        <v>379</v>
       </c>
       <c r="H389" s="15" t="s">
         <v>342</v>
@@ -8975,7 +8974,7 @@
     </row>
     <row r="390" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C390" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D390" s="15" t="s">
         <v>340</v>
@@ -8985,7 +8984,7 @@
         <v>380</v>
       </c>
       <c r="G390" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H390" s="15" t="s">
         <v>342</v>
@@ -8993,7 +8992,7 @@
     </row>
     <row r="391" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C391" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D391" s="15" t="s">
         <v>340</v>
@@ -9003,7 +9002,7 @@
         <v>381</v>
       </c>
       <c r="G391" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H391" s="15" t="s">
         <v>342</v>
@@ -9011,7 +9010,7 @@
     </row>
     <row r="392" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C392" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D392" s="15" t="s">
         <v>340</v>
@@ -9021,7 +9020,7 @@
         <v>382</v>
       </c>
       <c r="G392" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H392" s="15" t="s">
         <v>342</v>
@@ -9029,7 +9028,7 @@
     </row>
     <row r="393" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C393" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D393" s="15" t="s">
         <v>340</v>
@@ -9039,7 +9038,7 @@
         <v>383</v>
       </c>
       <c r="G393" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H393" s="15" t="s">
         <v>342</v>
@@ -9047,7 +9046,7 @@
     </row>
     <row r="394" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C394" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D394" s="15" t="s">
         <v>340</v>
@@ -9057,7 +9056,7 @@
         <v>384</v>
       </c>
       <c r="G394" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H394" s="15" t="s">
         <v>342</v>
@@ -9065,7 +9064,7 @@
     </row>
     <row r="395" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C395" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D395" s="15" t="s">
         <v>340</v>
@@ -9075,7 +9074,7 @@
         <v>385</v>
       </c>
       <c r="G395" s="15" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="H395" s="15" t="s">
         <v>342</v>
@@ -9083,7 +9082,7 @@
     </row>
     <row r="396" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C396" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D396" s="15" t="s">
         <v>340</v>
@@ -9093,7 +9092,7 @@
         <v>386</v>
       </c>
       <c r="G396" s="15" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="H396" s="15" t="s">
         <v>342</v>
@@ -9101,7 +9100,7 @@
     </row>
     <row r="397" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C397" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D397" s="15" t="s">
         <v>340</v>
@@ -9111,7 +9110,7 @@
         <v>387</v>
       </c>
       <c r="G397" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H397" s="15" t="s">
         <v>342</v>
@@ -9119,17 +9118,17 @@
     </row>
     <row r="398" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C398" s="15" t="s">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="D398" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="E398" s="15"/>
-      <c r="F398" s="15" t="s">
-        <v>388</v>
-      </c>
+      <c r="E398" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="F398" s="15"/>
       <c r="G398" s="15" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="H398" s="15" t="s">
         <v>342</v>
@@ -9137,17 +9136,17 @@
     </row>
     <row r="399" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C399" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D399" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="E399" s="15" t="s">
+      <c r="E399" s="15"/>
+      <c r="F399" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="F399" s="15"/>
       <c r="G399" s="15" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="H399" s="15" t="s">
         <v>342</v>
@@ -9155,7 +9154,7 @@
     </row>
     <row r="400" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C400" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D400" s="15" t="s">
         <v>340</v>
@@ -9165,7 +9164,7 @@
         <v>392</v>
       </c>
       <c r="G400" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H400" s="15" t="s">
         <v>342</v>
@@ -9173,7 +9172,7 @@
     </row>
     <row r="401" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C401" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D401" s="15" t="s">
         <v>340</v>
@@ -9183,7 +9182,7 @@
         <v>393</v>
       </c>
       <c r="G401" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H401" s="15" t="s">
         <v>342</v>
@@ -9191,7 +9190,7 @@
     </row>
     <row r="402" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C402" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D402" s="15" t="s">
         <v>340</v>
@@ -9201,7 +9200,7 @@
         <v>394</v>
       </c>
       <c r="G402" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H402" s="15" t="s">
         <v>342</v>
@@ -9209,7 +9208,7 @@
     </row>
     <row r="403" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C403" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D403" s="15" t="s">
         <v>340</v>
@@ -9219,7 +9218,7 @@
         <v>395</v>
       </c>
       <c r="G403" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H403" s="15" t="s">
         <v>342</v>
@@ -9227,7 +9226,7 @@
     </row>
     <row r="404" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C404" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D404" s="15" t="s">
         <v>340</v>
@@ -9237,7 +9236,7 @@
         <v>396</v>
       </c>
       <c r="G404" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H404" s="15" t="s">
         <v>342</v>
@@ -9245,7 +9244,7 @@
     </row>
     <row r="405" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C405" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D405" s="15" t="s">
         <v>340</v>
@@ -9255,7 +9254,7 @@
         <v>397</v>
       </c>
       <c r="G405" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H405" s="15" t="s">
         <v>342</v>
@@ -9263,7 +9262,7 @@
     </row>
     <row r="406" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C406" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D406" s="15" t="s">
         <v>340</v>
@@ -9273,7 +9272,7 @@
         <v>398</v>
       </c>
       <c r="G406" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H406" s="15" t="s">
         <v>342</v>
@@ -9281,7 +9280,7 @@
     </row>
     <row r="407" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C407" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D407" s="15" t="s">
         <v>340</v>
@@ -9291,7 +9290,7 @@
         <v>399</v>
       </c>
       <c r="G407" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H407" s="15" t="s">
         <v>342</v>
@@ -9299,7 +9298,7 @@
     </row>
     <row r="408" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C408" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D408" s="15" t="s">
         <v>340</v>
@@ -9309,7 +9308,7 @@
         <v>400</v>
       </c>
       <c r="G408" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H408" s="15" t="s">
         <v>342</v>
@@ -9317,7 +9316,7 @@
     </row>
     <row r="409" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C409" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D409" s="15" t="s">
         <v>340</v>
@@ -9327,7 +9326,7 @@
         <v>401</v>
       </c>
       <c r="G409" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H409" s="15" t="s">
         <v>342</v>
@@ -9335,7 +9334,7 @@
     </row>
     <row r="410" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C410" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D410" s="15" t="s">
         <v>340</v>
@@ -9345,7 +9344,7 @@
         <v>402</v>
       </c>
       <c r="G410" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H410" s="15" t="s">
         <v>342</v>
@@ -9353,7 +9352,7 @@
     </row>
     <row r="411" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C411" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D411" s="15" t="s">
         <v>340</v>
@@ -9363,7 +9362,7 @@
         <v>403</v>
       </c>
       <c r="G411" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H411" s="15" t="s">
         <v>342</v>
@@ -9371,7 +9370,7 @@
     </row>
     <row r="412" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C412" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D412" s="15" t="s">
         <v>340</v>
@@ -9381,7 +9380,7 @@
         <v>404</v>
       </c>
       <c r="G412" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H412" s="15" t="s">
         <v>342</v>
@@ -9389,7 +9388,7 @@
     </row>
     <row r="413" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C413" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D413" s="15" t="s">
         <v>340</v>
@@ -9399,7 +9398,7 @@
         <v>405</v>
       </c>
       <c r="G413" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H413" s="15" t="s">
         <v>342</v>
@@ -9407,7 +9406,7 @@
     </row>
     <row r="414" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C414" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D414" s="15" t="s">
         <v>340</v>
@@ -9417,7 +9416,7 @@
         <v>406</v>
       </c>
       <c r="G414" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H414" s="15" t="s">
         <v>342</v>
@@ -9425,7 +9424,7 @@
     </row>
     <row r="415" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C415" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D415" s="15" t="s">
         <v>340</v>
@@ -9435,7 +9434,7 @@
         <v>407</v>
       </c>
       <c r="G415" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H415" s="15" t="s">
         <v>342</v>
@@ -9443,7 +9442,7 @@
     </row>
     <row r="416" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C416" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D416" s="15" t="s">
         <v>340</v>
@@ -9453,7 +9452,7 @@
         <v>408</v>
       </c>
       <c r="G416" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H416" s="15" t="s">
         <v>342</v>
@@ -9461,7 +9460,7 @@
     </row>
     <row r="417" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C417" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D417" s="15" t="s">
         <v>340</v>
@@ -9471,7 +9470,7 @@
         <v>409</v>
       </c>
       <c r="G417" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H417" s="15" t="s">
         <v>342</v>
@@ -9479,7 +9478,7 @@
     </row>
     <row r="418" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C418" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D418" s="15" t="s">
         <v>340</v>
@@ -9489,7 +9488,7 @@
         <v>410</v>
       </c>
       <c r="G418" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H418" s="15" t="s">
         <v>342</v>
@@ -9497,7 +9496,7 @@
     </row>
     <row r="419" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C419" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D419" s="15" t="s">
         <v>340</v>
@@ -9507,7 +9506,7 @@
         <v>411</v>
       </c>
       <c r="G419" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H419" s="15" t="s">
         <v>342</v>
@@ -9515,7 +9514,7 @@
     </row>
     <row r="420" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C420" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D420" s="15" t="s">
         <v>340</v>
@@ -9525,7 +9524,7 @@
         <v>412</v>
       </c>
       <c r="G420" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H420" s="15" t="s">
         <v>342</v>
@@ -9533,7 +9532,7 @@
     </row>
     <row r="421" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C421" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D421" s="15" t="s">
         <v>340</v>
@@ -9543,7 +9542,7 @@
         <v>413</v>
       </c>
       <c r="G421" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H421" s="15" t="s">
         <v>342</v>
@@ -9551,7 +9550,7 @@
     </row>
     <row r="422" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C422" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D422" s="15" t="s">
         <v>340</v>
@@ -9561,7 +9560,7 @@
         <v>414</v>
       </c>
       <c r="G422" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H422" s="15" t="s">
         <v>342</v>
@@ -9569,7 +9568,7 @@
     </row>
     <row r="423" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C423" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D423" s="15" t="s">
         <v>340</v>
@@ -9579,7 +9578,7 @@
         <v>415</v>
       </c>
       <c r="G423" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H423" s="15" t="s">
         <v>342</v>
@@ -9587,7 +9586,7 @@
     </row>
     <row r="424" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C424" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D424" s="15" t="s">
         <v>340</v>
@@ -9597,7 +9596,7 @@
         <v>416</v>
       </c>
       <c r="G424" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H424" s="15" t="s">
         <v>342</v>
@@ -9605,7 +9604,7 @@
     </row>
     <row r="425" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C425" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D425" s="15" t="s">
         <v>340</v>
@@ -9615,7 +9614,7 @@
         <v>417</v>
       </c>
       <c r="G425" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H425" s="15" t="s">
         <v>342</v>
@@ -9623,7 +9622,7 @@
     </row>
     <row r="426" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C426" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D426" s="15" t="s">
         <v>340</v>
@@ -9633,7 +9632,7 @@
         <v>418</v>
       </c>
       <c r="G426" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H426" s="15" t="s">
         <v>342</v>
@@ -9641,7 +9640,7 @@
     </row>
     <row r="427" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C427" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D427" s="15" t="s">
         <v>340</v>
@@ -9651,7 +9650,7 @@
         <v>419</v>
       </c>
       <c r="G427" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H427" s="15" t="s">
         <v>342</v>
@@ -9659,7 +9658,7 @@
     </row>
     <row r="428" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C428" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D428" s="15" t="s">
         <v>340</v>
@@ -9669,7 +9668,7 @@
         <v>420</v>
       </c>
       <c r="G428" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H428" s="15" t="s">
         <v>342</v>
@@ -9677,7 +9676,7 @@
     </row>
     <row r="429" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C429" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D429" s="15" t="s">
         <v>340</v>
@@ -9687,7 +9686,7 @@
         <v>421</v>
       </c>
       <c r="G429" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H429" s="15" t="s">
         <v>342</v>
@@ -9695,7 +9694,7 @@
     </row>
     <row r="430" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C430" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D430" s="15" t="s">
         <v>340</v>
@@ -9705,7 +9704,7 @@
         <v>422</v>
       </c>
       <c r="G430" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H430" s="15" t="s">
         <v>342</v>
@@ -9713,7 +9712,7 @@
     </row>
     <row r="431" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C431" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D431" s="15" t="s">
         <v>340</v>
@@ -9723,7 +9722,7 @@
         <v>423</v>
       </c>
       <c r="G431" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H431" s="15" t="s">
         <v>342</v>
@@ -9731,17 +9730,17 @@
     </row>
     <row r="432" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C432" s="15" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="D432" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="E432" s="15"/>
-      <c r="F432" s="15" t="s">
-        <v>424</v>
-      </c>
+      <c r="E432" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F432" s="15"/>
       <c r="G432" s="15" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="H432" s="15" t="s">
         <v>342</v>
@@ -9749,17 +9748,17 @@
     </row>
     <row r="433" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C433" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D433" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="E433" s="15" t="s">
+      <c r="E433" s="15"/>
+      <c r="F433" s="15" t="s">
         <v>426</v>
       </c>
-      <c r="F433" s="15"/>
       <c r="G433" s="15" t="s">
-        <v>363</v>
+        <v>427</v>
       </c>
       <c r="H433" s="15" t="s">
         <v>342</v>
@@ -9767,17 +9766,17 @@
     </row>
     <row r="434" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C434" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D434" s="15" t="s">
         <v>340</v>
       </c>
       <c r="E434" s="15"/>
       <c r="F434" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="G434" s="15" t="s">
         <v>427</v>
-      </c>
-      <c r="G434" s="15" t="s">
-        <v>428</v>
       </c>
       <c r="H434" s="15" t="s">
         <v>342</v>
@@ -9785,7 +9784,7 @@
     </row>
     <row r="435" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C435" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D435" s="15" t="s">
         <v>340</v>
@@ -9795,7 +9794,7 @@
         <v>429</v>
       </c>
       <c r="G435" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H435" s="15" t="s">
         <v>342</v>
@@ -9803,7 +9802,7 @@
     </row>
     <row r="436" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C436" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D436" s="15" t="s">
         <v>340</v>
@@ -9813,7 +9812,7 @@
         <v>430</v>
       </c>
       <c r="G436" s="15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H436" s="15" t="s">
         <v>342</v>
@@ -9821,17 +9820,17 @@
     </row>
     <row r="437" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C437" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D437" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="E437" s="15"/>
-      <c r="F437" s="15" t="s">
-        <v>431</v>
-      </c>
+      <c r="E437" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F437" s="15"/>
       <c r="G437" s="15" t="s">
-        <v>428</v>
+        <v>363</v>
       </c>
       <c r="H437" s="15" t="s">
         <v>342</v>
@@ -9839,17 +9838,17 @@
     </row>
     <row r="438" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C438" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D438" s="15" t="s">
         <v>340</v>
       </c>
-      <c r="E438" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="F438" s="15"/>
+      <c r="E438" s="15"/>
+      <c r="F438" s="15" t="s">
+        <v>431</v>
+      </c>
       <c r="G438" s="15" t="s">
-        <v>363</v>
+        <v>432</v>
       </c>
       <c r="H438" s="15" t="s">
         <v>342</v>
@@ -9857,17 +9856,17 @@
     </row>
     <row r="439" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C439" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D439" s="15" t="s">
         <v>340</v>
       </c>
       <c r="E439" s="15"/>
       <c r="F439" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="G439" s="15" t="s">
         <v>432</v>
-      </c>
-      <c r="G439" s="15" t="s">
-        <v>433</v>
       </c>
       <c r="H439" s="15" t="s">
         <v>342</v>
@@ -9875,7 +9874,7 @@
     </row>
     <row r="440" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C440" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D440" s="15" t="s">
         <v>340</v>
@@ -9885,7 +9884,7 @@
         <v>434</v>
       </c>
       <c r="G440" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H440" s="15" t="s">
         <v>342</v>
@@ -9893,7 +9892,7 @@
     </row>
     <row r="441" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C441" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D441" s="15" t="s">
         <v>340</v>
@@ -9903,32 +9902,14 @@
         <v>435</v>
       </c>
       <c r="G441" s="15" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H441" s="15" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="442" spans="3:8" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C442" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="D442" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="E442" s="15"/>
-      <c r="F442" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="G442" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="H442" s="15" t="s">
-        <v>342</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="C9:H442" xr:uid="{5525FED6-2470-4DB9-92F1-A54CC427779E}"/>
+  <autoFilter ref="C9:H441" xr:uid="{5525FED6-2470-4DB9-92F1-A54CC427779E}"/>
   <mergeCells count="1">
     <mergeCell ref="D3:E7"/>
   </mergeCells>
@@ -9950,6 +9931,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003838AE3E0C06F54FA57C86F87FB55777" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="041d9526ebd64ace4fccb74c09506289">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ce030c41-a65b-41c3-8b29-370418f0c571" xmlns:ns3="84f3f96e-86b0-45e5-befd-d0e6637563a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="33f8c78fb4e0086d819feef455ebe857" ns2:_="" ns3:_="">
     <xsd:import namespace="ce030c41-a65b-41c3-8b29-370418f0c571"/>
@@ -10192,32 +10182,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCDB75F7-F384-4C08-A79B-2AFC730EDB6D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ce030c41-a65b-41c3-8b29-370418f0c571"/>
+    <ds:schemaRef ds:uri="84f3f96e-86b0-45e5-befd-d0e6637563a4"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{325532C8-7D23-49DE-BD19-00300B4EBD27}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D21203A9-BEFC-4362-994D-BA6AAF32DAB5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{325532C8-7D23-49DE-BD19-00300B4EBD27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ce030c41-a65b-41c3-8b29-370418f0c571"/>
+    <ds:schemaRef ds:uri="84f3f96e-86b0-45e5-befd-d0e6637563a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>